--- a/E2M2-2020/Activities/MentorInstructor_Feedback.xlsx
+++ b/E2M2-2020/Activities/MentorInstructor_Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2020/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434B07E9-B039-4C46-8822-D4EC3B1CF942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13FF933-904E-C544-BF5C-A0C6A111E7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16260" xr2:uid="{4D1093E0-C999-424A-9CDB-67ECA851A126}"/>
+    <workbookView xWindow="11320" yWindow="960" windowWidth="27640" windowHeight="16260" xr2:uid="{4D1093E0-C999-424A-9CDB-67ECA851A126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Instructor</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Christian</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -500,23 +506,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D57CA3D-9B81-ED40-B0D3-96BCEF676B72}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -524,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -532,23 +541,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -556,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -564,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -572,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -580,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -588,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
